--- a/Sprungdaten_processed/Verteilung.xlsx
+++ b/Sprungdaten_processed/Verteilung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Komplexpraktikum\Trampolin\Sprungdaten_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A436BA56-0D0F-40F0-812A-2D0B3BC0C96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E697C2-5D7D-4BC0-A246-E281892B8B32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{07A235EF-69F6-4EE6-A960-92A15BFE6DEF}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Salto C</t>
   </si>
@@ -185,6 +185,9 @@
   <si>
     <t>Anzahl Sprünge insgesamt</t>
   </si>
+  <si>
+    <t>Anzahl Klasse</t>
+  </si>
 </sst>
 </file>
 
@@ -215,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -223,13 +226,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -7353,14 +7369,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>34924</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>103185</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>701675</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>3174</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7388,15 +7404,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>65086</xdr:rowOff>
+      <xdr:colOff>5291</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:colOff>740832</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7724,7 +7740,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7747,23 +7763,33 @@
       <c r="B2">
         <v>287</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>169</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2">
         <f xml:space="preserve"> SUM(B2:B51)</f>
         <v>1710</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -8152,6 +8178,10 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B51">
     <sortCondition descending="1" ref="B2:B51"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
